--- a/iselUssSyncV2/OutputWSL/20220511_1304_D60L316W90Q35.0U0.45H98.5G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220511_1304_D60L316W90Q35.0U0.45H98.5G2_C_WSL.xlsx
@@ -80,12 +80,12 @@
   <dimension ref="A1:F30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.3125" customWidth="true"/>
-    <col min="2" max="2" width="10.3125" customWidth="true"/>
-    <col min="3" max="3" width="10.3125" customWidth="true"/>
-    <col min="4" max="4" width="10.3125" customWidth="true"/>
-    <col min="5" max="5" width="11.64453125" customWidth="true"/>
-    <col min="6" max="6" width="11.64453125" customWidth="true"/>
+    <col min="1" max="1" width="11.42578125" customWidth="true"/>
+    <col min="2" max="2" width="11.42578125" customWidth="true"/>
+    <col min="3" max="3" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="11.42578125" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
